--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Jamming_test/Consecutive/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据（SWIB）/Jamming_test/Consecutive/100nodes/100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Jamming_test\100nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据（SWIB）\Jamming_test\Consecutive\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B5A074-B38D-4167-BDFD-BF44AB1DB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF05850-56BF-4024-BDE4-81E29132F930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="W51" sqref="W51:W60"/>
     </sheetView>
   </sheetViews>
@@ -1599,7 +1599,7 @@
         <v>5</v>
       </c>
       <c r="H2">
-        <v>1603</v>
+        <v>1779</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -1623,7 +1623,7 @@
         <v>7</v>
       </c>
       <c r="Q2">
-        <v>5964</v>
+        <v>6095</v>
       </c>
       <c r="R2" t="s">
         <v>8</v>
@@ -1655,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>7626</v>
+        <v>7808</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -1679,7 +1679,7 @@
         <v>7</v>
       </c>
       <c r="Q3">
-        <v>11939</v>
+        <v>12243</v>
       </c>
       <c r="R3" t="s">
         <v>8</v>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>13530</v>
+        <v>13951</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
@@ -1735,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="Q4">
-        <v>17873</v>
+        <v>18388</v>
       </c>
       <c r="R4" t="s">
         <v>8</v>
@@ -1767,7 +1767,7 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>19579</v>
+        <v>20105</v>
       </c>
       <c r="I5" t="s">
         <v>6</v>
@@ -1791,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="Q5">
-        <v>24073</v>
+        <v>24427</v>
       </c>
       <c r="R5" t="s">
         <v>8</v>
@@ -1823,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>25769</v>
+        <v>26134</v>
       </c>
       <c r="I6" t="s">
         <v>6</v>
@@ -1847,7 +1847,7 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <v>30150</v>
+        <v>30491</v>
       </c>
       <c r="R6" t="s">
         <v>8</v>
@@ -1879,7 +1879,7 @@
         <v>5</v>
       </c>
       <c r="H7">
-        <v>31765</v>
+        <v>32177</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
@@ -1903,7 +1903,7 @@
         <v>7</v>
       </c>
       <c r="Q7">
-        <v>36107</v>
+        <v>36467</v>
       </c>
       <c r="R7" t="s">
         <v>8</v>
@@ -1935,7 +1935,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>37771</v>
+        <v>38167</v>
       </c>
       <c r="I8" t="s">
         <v>6</v>
@@ -1959,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="Q8">
-        <v>42178</v>
+        <v>42561</v>
       </c>
       <c r="R8" t="s">
         <v>8</v>
@@ -1991,7 +1991,7 @@
         <v>5</v>
       </c>
       <c r="H9">
-        <v>43777</v>
+        <v>44277</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
@@ -2015,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="Q9">
-        <v>48139</v>
+        <v>48740</v>
       </c>
       <c r="R9" t="s">
         <v>8</v>
@@ -2047,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="H10">
-        <v>49845</v>
+        <v>50445</v>
       </c>
       <c r="I10" t="s">
         <v>6</v>
@@ -2071,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="Q10">
-        <v>54175</v>
+        <v>54718</v>
       </c>
       <c r="R10" t="s">
         <v>8</v>
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="H11">
-        <v>55788</v>
+        <v>56425</v>
       </c>
       <c r="I11" t="s">
         <v>6</v>
@@ -2127,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="Q11">
-        <v>60158</v>
+        <v>60814</v>
       </c>
       <c r="R11" t="s">
         <v>8</v>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="U11" s="2">
         <f>Q11-H2</f>
-        <v>58555</v>
+        <v>59035</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="U12">
         <f t="shared" ref="U12:U75" si="0">Q12-H3</f>
-        <v>-7626</v>
+        <v>-7808</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -2181,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <v>1574</v>
+        <v>1782</v>
       </c>
       <c r="I13" t="s">
         <v>6</v>
@@ -2205,7 +2205,7 @@
         <v>7</v>
       </c>
       <c r="Q13">
-        <v>5844</v>
+        <v>6274</v>
       </c>
       <c r="R13" t="s">
         <v>8</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>-7686</v>
+        <v>-7677</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="H14">
-        <v>7435</v>
+        <v>7966</v>
       </c>
       <c r="I14" t="s">
         <v>6</v>
@@ -2265,7 +2265,7 @@
         <v>7</v>
       </c>
       <c r="Q14">
-        <v>11706</v>
+        <v>12236</v>
       </c>
       <c r="R14" t="s">
         <v>8</v>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>-7873</v>
+        <v>-7869</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="H15">
-        <v>13387</v>
+        <v>13916</v>
       </c>
       <c r="I15" t="s">
         <v>6</v>
@@ -2325,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="Q15">
-        <v>17704</v>
+        <v>18245</v>
       </c>
       <c r="R15" t="s">
         <v>8</v>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>-8065</v>
+        <v>-7889</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>19294</v>
+        <v>19939</v>
       </c>
       <c r="I16" t="s">
         <v>6</v>
@@ -2385,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="Q16">
-        <v>23633</v>
+        <v>24399</v>
       </c>
       <c r="R16" t="s">
         <v>8</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>-8132</v>
+        <v>-7778</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -2421,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>25218</v>
+        <v>26098</v>
       </c>
       <c r="I17" t="s">
         <v>6</v>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="Q17">
-        <v>29513</v>
+        <v>30447</v>
       </c>
       <c r="R17" t="s">
         <v>8</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>-8258</v>
+        <v>-7720</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -2481,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>31102</v>
+        <v>32143</v>
       </c>
       <c r="I18" t="s">
         <v>6</v>
@@ -2505,7 +2505,7 @@
         <v>7</v>
       </c>
       <c r="Q18">
-        <v>35383</v>
+        <v>36441</v>
       </c>
       <c r="R18" t="s">
         <v>8</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>-8394</v>
+        <v>-7836</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -2541,7 +2541,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>36972</v>
+        <v>38146</v>
       </c>
       <c r="I19" t="s">
         <v>6</v>
@@ -2565,7 +2565,7 @@
         <v>7</v>
       </c>
       <c r="Q19">
-        <v>41296</v>
+        <v>42506</v>
       </c>
       <c r="R19" t="s">
         <v>8</v>
@@ -2575,7 +2575,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>-8549</v>
+        <v>-7939</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -2601,7 +2601,7 @@
         <v>5</v>
       </c>
       <c r="H20">
-        <v>42907</v>
+        <v>44196</v>
       </c>
       <c r="I20" t="s">
         <v>6</v>
@@ -2625,7 +2625,7 @@
         <v>7</v>
       </c>
       <c r="Q20">
-        <v>47170</v>
+        <v>48514</v>
       </c>
       <c r="R20" t="s">
         <v>8</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>-8618</v>
+        <v>-7911</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>48760</v>
+        <v>50200</v>
       </c>
       <c r="I21" t="s">
         <v>6</v>
@@ -2685,7 +2685,7 @@
         <v>7</v>
       </c>
       <c r="Q21">
-        <v>53068</v>
+        <v>54686</v>
       </c>
       <c r="R21" t="s">
         <v>8</v>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>53068</v>
+        <v>54686</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <v>54762</v>
+        <v>56392</v>
       </c>
       <c r="I22" t="s">
         <v>6</v>
@@ -2745,7 +2745,7 @@
         <v>7</v>
       </c>
       <c r="Q22">
-        <v>59130</v>
+        <v>60740</v>
       </c>
       <c r="R22" t="s">
         <v>8</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="U22" s="2">
         <f t="shared" si="0"/>
-        <v>57556</v>
+        <v>58958</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="U23">
         <f t="shared" si="0"/>
-        <v>-7435</v>
+        <v>-7966</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>5</v>
       </c>
       <c r="H24">
-        <v>1574</v>
+        <v>1772</v>
       </c>
       <c r="I24" t="s">
         <v>6</v>
@@ -2823,7 +2823,7 @@
         <v>7</v>
       </c>
       <c r="Q24">
-        <v>5928</v>
+        <v>6099</v>
       </c>
       <c r="R24" t="s">
         <v>8</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>-7459</v>
+        <v>-7817</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -2859,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>7522</v>
+        <v>7793</v>
       </c>
       <c r="I25" t="s">
         <v>6</v>
@@ -2883,7 +2883,7 @@
         <v>7</v>
       </c>
       <c r="Q25">
-        <v>11967</v>
+        <v>12206</v>
       </c>
       <c r="R25" t="s">
         <v>8</v>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>-7327</v>
+        <v>-7733</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="H26">
-        <v>13556</v>
+        <v>13905</v>
       </c>
       <c r="I26" t="s">
         <v>6</v>
@@ -2943,7 +2943,7 @@
         <v>7</v>
       </c>
       <c r="Q26">
-        <v>17834</v>
+        <v>18220</v>
       </c>
       <c r="R26" t="s">
         <v>8</v>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>-7384</v>
+        <v>-7878</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -2979,7 +2979,7 @@
         <v>5</v>
       </c>
       <c r="H27">
-        <v>19421</v>
+        <v>19908</v>
       </c>
       <c r="I27" t="s">
         <v>6</v>
@@ -3003,7 +3003,7 @@
         <v>7</v>
       </c>
       <c r="Q27">
-        <v>23930</v>
+        <v>24276</v>
       </c>
       <c r="R27" t="s">
         <v>8</v>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>-7172</v>
+        <v>-7867</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -3039,7 +3039,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>25599</v>
+        <v>25968</v>
       </c>
       <c r="I28" t="s">
         <v>6</v>
@@ -3063,7 +3063,7 @@
         <v>7</v>
       </c>
       <c r="Q28">
-        <v>30021</v>
+        <v>30282</v>
       </c>
       <c r="R28" t="s">
         <v>8</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>-6951</v>
+        <v>-7864</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="H29">
-        <v>31605</v>
+        <v>31980</v>
       </c>
       <c r="I29" t="s">
         <v>6</v>
@@ -3123,7 +3123,7 @@
         <v>7</v>
       </c>
       <c r="Q29">
-        <v>35858</v>
+        <v>36381</v>
       </c>
       <c r="R29" t="s">
         <v>8</v>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>-7049</v>
+        <v>-7815</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -3159,7 +3159,7 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>37446</v>
+        <v>38077</v>
       </c>
       <c r="I30" t="s">
         <v>6</v>
@@ -3183,7 +3183,7 @@
         <v>7</v>
       </c>
       <c r="Q30">
-        <v>41720</v>
+        <v>42415</v>
       </c>
       <c r="R30" t="s">
         <v>8</v>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>-7040</v>
+        <v>-7785</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -3219,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <v>43334</v>
+        <v>44101</v>
       </c>
       <c r="I31" t="s">
         <v>6</v>
@@ -3243,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="Q31">
-        <v>47796</v>
+        <v>48438</v>
       </c>
       <c r="R31" t="s">
         <v>8</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>-6966</v>
+        <v>-7954</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="H32">
-        <v>49389</v>
+        <v>50136</v>
       </c>
       <c r="I32" t="s">
         <v>6</v>
@@ -3303,7 +3303,7 @@
         <v>7</v>
       </c>
       <c r="Q32">
-        <v>53645</v>
+        <v>54562</v>
       </c>
       <c r="R32" t="s">
         <v>8</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>53645</v>
+        <v>54562</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -3339,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>55234</v>
+        <v>56268</v>
       </c>
       <c r="I33" t="s">
         <v>6</v>
@@ -3363,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="Q33">
-        <v>59496</v>
+        <v>60575</v>
       </c>
       <c r="R33" t="s">
         <v>8</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="U33" s="2">
         <f t="shared" si="0"/>
-        <v>57922</v>
+        <v>58803</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="U34">
         <f t="shared" si="0"/>
-        <v>-7522</v>
+        <v>-7793</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -3417,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>1568</v>
+        <v>1779</v>
       </c>
       <c r="I35" t="s">
         <v>6</v>
@@ -3441,7 +3441,7 @@
         <v>7</v>
       </c>
       <c r="Q35">
-        <v>6099</v>
+        <v>6210</v>
       </c>
       <c r="R35" t="s">
         <v>8</v>
@@ -3451,7 +3451,7 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>-7457</v>
+        <v>-7695</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -3477,7 +3477,7 @@
         <v>5</v>
       </c>
       <c r="H36">
-        <v>7689</v>
+        <v>7902</v>
       </c>
       <c r="I36" t="s">
         <v>6</v>
@@ -3501,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="Q36">
-        <v>11928</v>
+        <v>12499</v>
       </c>
       <c r="R36" t="s">
         <v>8</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>-7493</v>
+        <v>-7409</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="H37">
-        <v>13514</v>
+        <v>14203</v>
       </c>
       <c r="I37" t="s">
         <v>6</v>
@@ -3561,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="Q37">
-        <v>17912</v>
+        <v>18723</v>
       </c>
       <c r="R37" t="s">
         <v>8</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>-7687</v>
+        <v>-7245</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="H38">
-        <v>19497</v>
+        <v>20408</v>
       </c>
       <c r="I38" t="s">
         <v>6</v>
@@ -3621,7 +3621,7 @@
         <v>7</v>
       </c>
       <c r="Q38">
-        <v>23831</v>
+        <v>24712</v>
       </c>
       <c r="R38" t="s">
         <v>8</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>-7774</v>
+        <v>-7268</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -3657,7 +3657,7 @@
         <v>5</v>
       </c>
       <c r="H39">
-        <v>25422</v>
+        <v>26403</v>
       </c>
       <c r="I39" t="s">
         <v>6</v>
@@ -3681,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="Q39">
-        <v>29755</v>
+        <v>30719</v>
       </c>
       <c r="R39" t="s">
         <v>8</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>-7691</v>
+        <v>-7358</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -3717,7 +3717,7 @@
         <v>5</v>
       </c>
       <c r="H40">
-        <v>31360</v>
+        <v>32403</v>
       </c>
       <c r="I40" t="s">
         <v>6</v>
@@ -3741,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="Q40">
-        <v>35675</v>
+        <v>36759</v>
       </c>
       <c r="R40" t="s">
         <v>8</v>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>-7659</v>
+        <v>-7342</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -3777,7 +3777,7 @@
         <v>5</v>
       </c>
       <c r="H41">
-        <v>37267</v>
+        <v>38446</v>
       </c>
       <c r="I41" t="s">
         <v>6</v>
@@ -3801,7 +3801,7 @@
         <v>7</v>
       </c>
       <c r="Q41">
-        <v>41535</v>
+        <v>42760</v>
       </c>
       <c r="R41" t="s">
         <v>8</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>-7854</v>
+        <v>-7376</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -3837,7 +3837,7 @@
         <v>5</v>
       </c>
       <c r="H42">
-        <v>43168</v>
+        <v>44453</v>
       </c>
       <c r="I42" t="s">
         <v>6</v>
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="Q42">
-        <v>47588</v>
+        <v>48833</v>
       </c>
       <c r="R42" t="s">
         <v>8</v>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>-7646</v>
+        <v>-7435</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
         <v>5</v>
       </c>
       <c r="H43">
-        <v>49199</v>
+        <v>50534</v>
       </c>
       <c r="I43" t="s">
         <v>6</v>
@@ -3921,7 +3921,7 @@
         <v>7</v>
       </c>
       <c r="Q43">
-        <v>53588</v>
+        <v>54832</v>
       </c>
       <c r="R43" t="s">
         <v>8</v>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>53588</v>
+        <v>54832</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -3957,7 +3957,7 @@
         <v>5</v>
       </c>
       <c r="H44">
-        <v>55196</v>
+        <v>56533</v>
       </c>
       <c r="I44" t="s">
         <v>6</v>
@@ -3981,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="Q44">
-        <v>59712</v>
+        <v>60859</v>
       </c>
       <c r="R44" t="s">
         <v>8</v>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="U44" s="2">
         <f t="shared" si="0"/>
-        <v>58144</v>
+        <v>59080</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="U45">
         <f t="shared" si="0"/>
-        <v>-7689</v>
+        <v>-7902</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -4035,7 +4035,7 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <v>1566</v>
+        <v>1784</v>
       </c>
       <c r="I46" t="s">
         <v>6</v>
@@ -4059,7 +4059,7 @@
         <v>7</v>
       </c>
       <c r="Q46">
-        <v>5882</v>
+        <v>6281</v>
       </c>
       <c r="R46" t="s">
         <v>8</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>-7632</v>
+        <v>-7922</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -4095,7 +4095,7 @@
         <v>5</v>
       </c>
       <c r="H47">
-        <v>7508</v>
+        <v>7978</v>
       </c>
       <c r="I47" t="s">
         <v>6</v>
@@ -4119,7 +4119,7 @@
         <v>7</v>
       </c>
       <c r="Q47">
-        <v>11821</v>
+        <v>12349</v>
       </c>
       <c r="R47" t="s">
         <v>8</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>-7676</v>
+        <v>-8059</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="H48">
-        <v>13449</v>
+        <v>14040</v>
       </c>
       <c r="I48" t="s">
         <v>6</v>
@@ -4179,7 +4179,7 @@
         <v>7</v>
       </c>
       <c r="Q48">
-        <v>17778</v>
+        <v>18370</v>
       </c>
       <c r="R48" t="s">
         <v>8</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>-7644</v>
+        <v>-8033</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -4215,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="H49">
-        <v>19365</v>
+        <v>20068</v>
       </c>
       <c r="I49" t="s">
         <v>6</v>
@@ -4239,7 +4239,7 @@
         <v>7</v>
       </c>
       <c r="Q49">
-        <v>23666</v>
+        <v>24437</v>
       </c>
       <c r="R49" t="s">
         <v>8</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>-7694</v>
+        <v>-7966</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -4275,7 +4275,7 @@
         <v>5</v>
       </c>
       <c r="H50">
-        <v>25256</v>
+        <v>26134</v>
       </c>
       <c r="I50" t="s">
         <v>6</v>
@@ -4299,7 +4299,7 @@
         <v>7</v>
       </c>
       <c r="Q50">
-        <v>29627</v>
+        <v>30456</v>
       </c>
       <c r="R50" t="s">
         <v>8</v>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>-7640</v>
+        <v>-7990</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -4335,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="H51">
-        <v>31223</v>
+        <v>32169</v>
       </c>
       <c r="I51" t="s">
         <v>6</v>
@@ -4359,7 +4359,7 @@
         <v>7</v>
       </c>
       <c r="Q51">
-        <v>35685</v>
+        <v>36572</v>
       </c>
       <c r="R51" t="s">
         <v>8</v>
@@ -4369,10 +4369,10 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>-7483</v>
+        <v>-7881</v>
       </c>
       <c r="W51">
-        <v>58555</v>
+        <v>59035</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="H52">
-        <v>37279</v>
+        <v>38257</v>
       </c>
       <c r="I52" t="s">
         <v>6</v>
@@ -4422,7 +4422,7 @@
         <v>7</v>
       </c>
       <c r="Q52">
-        <v>41629</v>
+        <v>42542</v>
       </c>
       <c r="R52" t="s">
         <v>8</v>
@@ -4432,10 +4432,10 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>-7570</v>
+        <v>-7992</v>
       </c>
       <c r="W52">
-        <v>57556</v>
+        <v>58958</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
@@ -4461,7 +4461,7 @@
         <v>5</v>
       </c>
       <c r="H53">
-        <v>43215</v>
+        <v>44226</v>
       </c>
       <c r="I53" t="s">
         <v>6</v>
@@ -4485,7 +4485,7 @@
         <v>7</v>
       </c>
       <c r="Q53">
-        <v>47626</v>
+        <v>48520</v>
       </c>
       <c r="R53" t="s">
         <v>8</v>
@@ -4495,10 +4495,10 @@
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>-7570</v>
+        <v>-8013</v>
       </c>
       <c r="W53">
-        <v>57922</v>
+        <v>58803</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.2">
@@ -4524,7 +4524,7 @@
         <v>5</v>
       </c>
       <c r="H54">
-        <v>49224</v>
+        <v>50224</v>
       </c>
       <c r="I54" t="s">
         <v>6</v>
@@ -4548,7 +4548,7 @@
         <v>7</v>
       </c>
       <c r="Q54">
-        <v>53486</v>
+        <v>54534</v>
       </c>
       <c r="R54" t="s">
         <v>8</v>
@@ -4558,10 +4558,10 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>53486</v>
+        <v>54534</v>
       </c>
       <c r="W54">
-        <v>58144</v>
+        <v>59080</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -4587,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <v>55080</v>
+        <v>56236</v>
       </c>
       <c r="I55" t="s">
         <v>6</v>
@@ -4611,7 +4611,7 @@
         <v>7</v>
       </c>
       <c r="Q55">
-        <v>59344</v>
+        <v>60771</v>
       </c>
       <c r="R55" t="s">
         <v>8</v>
@@ -4621,10 +4621,10 @@
       </c>
       <c r="U55" s="2">
         <f t="shared" si="0"/>
-        <v>57778</v>
+        <v>58987</v>
       </c>
       <c r="W55">
-        <v>57778</v>
+        <v>58987</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -4642,10 +4642,10 @@
       </c>
       <c r="U56">
         <f t="shared" si="0"/>
-        <v>-7508</v>
+        <v>-7978</v>
       </c>
       <c r="W56">
-        <v>57878</v>
+        <v>59766</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
@@ -4671,7 +4671,7 @@
         <v>5</v>
       </c>
       <c r="H57">
-        <v>1569</v>
+        <v>1780</v>
       </c>
       <c r="I57" t="s">
         <v>6</v>
@@ -4695,7 +4695,7 @@
         <v>7</v>
       </c>
       <c r="Q57">
-        <v>5828</v>
+        <v>6157</v>
       </c>
       <c r="R57" t="s">
         <v>8</v>
@@ -4705,10 +4705,10 @@
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>-7621</v>
+        <v>-7883</v>
       </c>
       <c r="W57">
-        <v>57974</v>
+        <v>59072</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -4734,7 +4734,7 @@
         <v>5</v>
       </c>
       <c r="H58">
-        <v>7415</v>
+        <v>7847</v>
       </c>
       <c r="I58" t="s">
         <v>6</v>
@@ -4758,7 +4758,7 @@
         <v>7</v>
       </c>
       <c r="Q58">
-        <v>11703</v>
+        <v>12211</v>
       </c>
       <c r="R58" t="s">
         <v>8</v>
@@ -4768,10 +4768,10 @@
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>-7662</v>
+        <v>-7857</v>
       </c>
       <c r="W58">
-        <v>57881</v>
+        <v>58750</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
@@ -4797,7 +4797,7 @@
         <v>5</v>
       </c>
       <c r="H59">
-        <v>13285</v>
+        <v>13892</v>
       </c>
       <c r="I59" t="s">
         <v>6</v>
@@ -4821,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="Q59">
-        <v>17792</v>
+        <v>18210</v>
       </c>
       <c r="R59" t="s">
         <v>8</v>
@@ -4831,10 +4831,10 @@
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>-7464</v>
+        <v>-7924</v>
       </c>
       <c r="W59">
-        <v>57589</v>
+        <v>59237</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
       <c r="H60">
-        <v>19389</v>
+        <v>19907</v>
       </c>
       <c r="I60" t="s">
         <v>6</v>
@@ -4884,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="Q60">
-        <v>23730</v>
+        <v>24368</v>
       </c>
       <c r="R60" t="s">
         <v>8</v>
@@ -4894,10 +4894,10 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>-7493</v>
+        <v>-7801</v>
       </c>
       <c r="W60">
-        <v>57790</v>
+        <v>59644</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -4923,7 +4923,7 @@
         <v>5</v>
       </c>
       <c r="H61">
-        <v>25343</v>
+        <v>26069</v>
       </c>
       <c r="I61" t="s">
         <v>6</v>
@@ -4947,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="Q61">
-        <v>29771</v>
+        <v>30741</v>
       </c>
       <c r="R61" t="s">
         <v>8</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>-7508</v>
+        <v>-7516</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>5</v>
       </c>
       <c r="H62">
-        <v>31368</v>
+        <v>32449</v>
       </c>
       <c r="I62" t="s">
         <v>6</v>
@@ -5007,7 +5007,7 @@
         <v>7</v>
       </c>
       <c r="Q62">
-        <v>35672</v>
+        <v>37037</v>
       </c>
       <c r="R62" t="s">
         <v>8</v>
@@ -5017,7 +5017,7 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>-7543</v>
+        <v>-7189</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
@@ -5043,7 +5043,7 @@
         <v>5</v>
       </c>
       <c r="H63">
-        <v>37276</v>
+        <v>38723</v>
       </c>
       <c r="I63" t="s">
         <v>6</v>
@@ -5067,7 +5067,7 @@
         <v>7</v>
       </c>
       <c r="Q63">
-        <v>41618</v>
+        <v>43011</v>
       </c>
       <c r="R63" t="s">
         <v>8</v>
@@ -5077,7 +5077,7 @@
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>-7606</v>
+        <v>-7213</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="H64">
-        <v>43215</v>
+        <v>44707</v>
       </c>
       <c r="I64" t="s">
         <v>6</v>
@@ -5127,7 +5127,7 @@
         <v>7</v>
       </c>
       <c r="Q64">
-        <v>47619</v>
+        <v>49030</v>
       </c>
       <c r="R64" t="s">
         <v>8</v>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>-7461</v>
+        <v>-7206</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
         <v>5</v>
       </c>
       <c r="H65">
-        <v>49213</v>
+        <v>50730</v>
       </c>
       <c r="I65" t="s">
         <v>6</v>
@@ -5187,7 +5187,7 @@
         <v>7</v>
       </c>
       <c r="Q65">
-        <v>53584</v>
+        <v>55181</v>
       </c>
       <c r="R65" t="s">
         <v>8</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>53584</v>
+        <v>55181</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
@@ -5223,7 +5223,7 @@
         <v>5</v>
       </c>
       <c r="H66">
-        <v>55184</v>
+        <v>56868</v>
       </c>
       <c r="I66" t="s">
         <v>6</v>
@@ -5247,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="Q66">
-        <v>59447</v>
+        <v>61546</v>
       </c>
       <c r="R66" t="s">
         <v>8</v>
@@ -5257,7 +5257,7 @@
       </c>
       <c r="U66" s="2">
         <f t="shared" si="0"/>
-        <v>57878</v>
+        <v>59766</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="U67">
         <f t="shared" si="0"/>
-        <v>-7415</v>
+        <v>-7847</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
@@ -5301,7 +5301,7 @@
         <v>5</v>
       </c>
       <c r="H68">
-        <v>1567</v>
+        <v>1748</v>
       </c>
       <c r="I68" t="s">
         <v>6</v>
@@ -5325,7 +5325,7 @@
         <v>7</v>
       </c>
       <c r="Q68">
-        <v>5867</v>
+        <v>6089</v>
       </c>
       <c r="R68" t="s">
         <v>8</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="U68">
         <f t="shared" si="0"/>
-        <v>-7418</v>
+        <v>-7803</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -5361,7 +5361,7 @@
         <v>5</v>
       </c>
       <c r="H69">
-        <v>7459</v>
+        <v>7784</v>
       </c>
       <c r="I69" t="s">
         <v>6</v>
@@ -5385,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="Q69">
-        <v>11817</v>
+        <v>12092</v>
       </c>
       <c r="R69" t="s">
         <v>8</v>
@@ -5395,7 +5395,7 @@
       </c>
       <c r="U69">
         <f t="shared" si="0"/>
-        <v>-7572</v>
+        <v>-7815</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="H70">
-        <v>13427</v>
+        <v>13791</v>
       </c>
       <c r="I70" t="s">
         <v>6</v>
@@ -5445,7 +5445,7 @@
         <v>7</v>
       </c>
       <c r="Q70">
-        <v>17951</v>
+        <v>18196</v>
       </c>
       <c r="R70" t="s">
         <v>8</v>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="U70">
         <f t="shared" si="0"/>
-        <v>-7392</v>
+        <v>-7873</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <v>19547</v>
+        <v>19897</v>
       </c>
       <c r="I71" t="s">
         <v>6</v>
@@ -5505,7 +5505,7 @@
         <v>7</v>
       </c>
       <c r="Q71">
-        <v>23833</v>
+        <v>24286</v>
       </c>
       <c r="R71" t="s">
         <v>8</v>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="U71">
         <f t="shared" si="0"/>
-        <v>-7535</v>
+        <v>-8163</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
@@ -5541,7 +5541,7 @@
         <v>5</v>
       </c>
       <c r="H72">
-        <v>25433</v>
+        <v>25983</v>
       </c>
       <c r="I72" t="s">
         <v>6</v>
@@ -5565,7 +5565,7 @@
         <v>7</v>
       </c>
       <c r="Q72">
-        <v>29912</v>
+        <v>30571</v>
       </c>
       <c r="R72" t="s">
         <v>8</v>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="U72">
         <f t="shared" si="0"/>
-        <v>-7364</v>
+        <v>-8152</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
@@ -5601,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="H73">
-        <v>31515</v>
+        <v>32261</v>
       </c>
       <c r="I73" t="s">
         <v>6</v>
@@ -5625,7 +5625,7 @@
         <v>7</v>
       </c>
       <c r="Q73">
-        <v>36030</v>
+        <v>36621</v>
       </c>
       <c r="R73" t="s">
         <v>8</v>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="U73">
         <f t="shared" si="0"/>
-        <v>-7185</v>
+        <v>-8086</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
@@ -5661,7 +5661,7 @@
         <v>5</v>
       </c>
       <c r="H74">
-        <v>37638</v>
+        <v>38322</v>
       </c>
       <c r="I74" t="s">
         <v>6</v>
@@ -5685,7 +5685,7 @@
         <v>7</v>
       </c>
       <c r="Q74">
-        <v>41941</v>
+        <v>42646</v>
       </c>
       <c r="R74" t="s">
         <v>8</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="U74">
         <f t="shared" si="0"/>
-        <v>-7272</v>
+        <v>-8084</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>5</v>
       </c>
       <c r="H75">
-        <v>43550</v>
+        <v>44347</v>
       </c>
       <c r="I75" t="s">
         <v>6</v>
@@ -5745,7 +5745,7 @@
         <v>7</v>
       </c>
       <c r="Q75">
-        <v>47800</v>
+        <v>48738</v>
       </c>
       <c r="R75" t="s">
         <v>8</v>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="U75">
         <f t="shared" si="0"/>
-        <v>-7384</v>
+        <v>-8130</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
@@ -5781,7 +5781,7 @@
         <v>5</v>
       </c>
       <c r="H76">
-        <v>49409</v>
+        <v>50443</v>
       </c>
       <c r="I76" t="s">
         <v>6</v>
@@ -5805,7 +5805,7 @@
         <v>7</v>
       </c>
       <c r="Q76">
-        <v>53672</v>
+        <v>54770</v>
       </c>
       <c r="R76" t="s">
         <v>8</v>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="U76">
         <f t="shared" ref="U76:U110" si="1">Q76-H67</f>
-        <v>53672</v>
+        <v>54770</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
@@ -5841,7 +5841,7 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <v>55282</v>
+        <v>56463</v>
       </c>
       <c r="I77" t="s">
         <v>6</v>
@@ -5865,7 +5865,7 @@
         <v>7</v>
       </c>
       <c r="Q77">
-        <v>59541</v>
+        <v>60820</v>
       </c>
       <c r="R77" t="s">
         <v>8</v>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="U77" s="2">
         <f t="shared" si="1"/>
-        <v>57974</v>
+        <v>59072</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="U78">
         <f t="shared" si="1"/>
-        <v>-7459</v>
+        <v>-7784</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
@@ -5919,7 +5919,7 @@
         <v>5</v>
       </c>
       <c r="H79">
-        <v>1568</v>
+        <v>1782</v>
       </c>
       <c r="I79" t="s">
         <v>6</v>
@@ -5943,7 +5943,7 @@
         <v>7</v>
       </c>
       <c r="Q79">
-        <v>5937</v>
+        <v>6099</v>
       </c>
       <c r="R79" t="s">
         <v>8</v>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>-7490</v>
+        <v>-7692</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
@@ -5979,7 +5979,7 @@
         <v>5</v>
       </c>
       <c r="H80">
-        <v>7528</v>
+        <v>7794</v>
       </c>
       <c r="I80" t="s">
         <v>6</v>
@@ -6003,7 +6003,7 @@
         <v>7</v>
       </c>
       <c r="Q80">
-        <v>11781</v>
+        <v>12105</v>
       </c>
       <c r="R80" t="s">
         <v>8</v>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>-7766</v>
+        <v>-7792</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>5</v>
       </c>
       <c r="H81">
-        <v>13371</v>
+        <v>13806</v>
       </c>
       <c r="I81" t="s">
         <v>6</v>
@@ -6063,7 +6063,7 @@
         <v>7</v>
       </c>
       <c r="Q81">
-        <v>17657</v>
+        <v>18139</v>
       </c>
       <c r="R81" t="s">
         <v>8</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>-7776</v>
+        <v>-7844</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
@@ -6099,7 +6099,7 @@
         <v>5</v>
       </c>
       <c r="H82">
-        <v>19247</v>
+        <v>19830</v>
       </c>
       <c r="I82" t="s">
         <v>6</v>
@@ -6123,7 +6123,7 @@
         <v>7</v>
       </c>
       <c r="Q82">
-        <v>23513</v>
+        <v>24175</v>
       </c>
       <c r="R82" t="s">
         <v>8</v>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>-8002</v>
+        <v>-8086</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
@@ -6159,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="H83">
-        <v>25106</v>
+        <v>25871</v>
       </c>
       <c r="I83" t="s">
         <v>6</v>
@@ -6183,7 +6183,7 @@
         <v>7</v>
       </c>
       <c r="Q83">
-        <v>29457</v>
+        <v>30277</v>
       </c>
       <c r="R83" t="s">
         <v>8</v>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>-8181</v>
+        <v>-8045</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
@@ -6219,7 +6219,7 @@
         <v>5</v>
       </c>
       <c r="H84">
-        <v>31050</v>
+        <v>31970</v>
       </c>
       <c r="I84" t="s">
         <v>6</v>
@@ -6243,7 +6243,7 @@
         <v>7</v>
       </c>
       <c r="Q84">
-        <v>35512</v>
+        <v>36295</v>
       </c>
       <c r="R84" t="s">
         <v>8</v>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>-8038</v>
+        <v>-8052</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
@@ -6279,7 +6279,7 @@
         <v>5</v>
       </c>
       <c r="H85">
-        <v>37114</v>
+        <v>37988</v>
       </c>
       <c r="I85" t="s">
         <v>6</v>
@@ -6303,7 +6303,7 @@
         <v>7</v>
       </c>
       <c r="Q85">
-        <v>41522</v>
+        <v>42395</v>
       </c>
       <c r="R85" t="s">
         <v>8</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>-7887</v>
+        <v>-8048</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
         <v>5</v>
       </c>
       <c r="H86">
-        <v>43135</v>
+        <v>44092</v>
       </c>
       <c r="I86" t="s">
         <v>6</v>
@@ -6363,7 +6363,7 @@
         <v>7</v>
       </c>
       <c r="Q86">
-        <v>47496</v>
+        <v>48435</v>
       </c>
       <c r="R86" t="s">
         <v>8</v>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>-7786</v>
+        <v>-8028</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
         <v>5</v>
       </c>
       <c r="H87">
-        <v>49106</v>
+        <v>50142</v>
       </c>
       <c r="I87" t="s">
         <v>6</v>
@@ -6423,7 +6423,7 @@
         <v>7</v>
       </c>
       <c r="Q87">
-        <v>53454</v>
+        <v>54478</v>
       </c>
       <c r="R87" t="s">
         <v>8</v>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>53454</v>
+        <v>54478</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
@@ -6459,7 +6459,7 @@
         <v>5</v>
       </c>
       <c r="H88">
-        <v>55062</v>
+        <v>56168</v>
       </c>
       <c r="I88" t="s">
         <v>6</v>
@@ -6483,7 +6483,7 @@
         <v>7</v>
       </c>
       <c r="Q88">
-        <v>59449</v>
+        <v>60532</v>
       </c>
       <c r="R88" t="s">
         <v>8</v>
@@ -6493,7 +6493,7 @@
       </c>
       <c r="U88" s="2">
         <f t="shared" si="1"/>
-        <v>57881</v>
+        <v>58750</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
@@ -6511,7 +6511,7 @@
       </c>
       <c r="U89">
         <f t="shared" si="1"/>
-        <v>-7528</v>
+        <v>-7794</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
         <v>5</v>
       </c>
       <c r="H90">
-        <v>1562</v>
+        <v>1795</v>
       </c>
       <c r="I90" t="s">
         <v>6</v>
@@ -6561,7 +6561,7 @@
         <v>7</v>
       </c>
       <c r="Q90">
-        <v>5823</v>
+        <v>6266</v>
       </c>
       <c r="R90" t="s">
         <v>8</v>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>-7548</v>
+        <v>-7540</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
@@ -6597,7 +6597,7 @@
         <v>5</v>
       </c>
       <c r="H91">
-        <v>7423</v>
+        <v>7967</v>
       </c>
       <c r="I91" t="s">
         <v>6</v>
@@ -6621,7 +6621,7 @@
         <v>7</v>
       </c>
       <c r="Q91">
-        <v>11693</v>
+        <v>12388</v>
       </c>
       <c r="R91" t="s">
         <v>8</v>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>-7554</v>
+        <v>-7442</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
         <v>5</v>
       </c>
       <c r="H92">
-        <v>13290</v>
+        <v>14082</v>
       </c>
       <c r="I92" t="s">
         <v>6</v>
@@ -6681,7 +6681,7 @@
         <v>7</v>
       </c>
       <c r="Q92">
-        <v>17573</v>
+        <v>18490</v>
       </c>
       <c r="R92" t="s">
         <v>8</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>-7533</v>
+        <v>-7381</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
@@ -6717,7 +6717,7 @@
         <v>5</v>
       </c>
       <c r="H93">
-        <v>19169</v>
+        <v>20189</v>
       </c>
       <c r="I93" t="s">
         <v>6</v>
@@ -6741,7 +6741,7 @@
         <v>7</v>
       </c>
       <c r="Q93">
-        <v>23457</v>
+        <v>24550</v>
       </c>
       <c r="R93" t="s">
         <v>8</v>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>-7593</v>
+        <v>-7420</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <v>25064</v>
+        <v>26254</v>
       </c>
       <c r="I94" t="s">
         <v>6</v>
@@ -6801,7 +6801,7 @@
         <v>7</v>
       </c>
       <c r="Q94">
-        <v>29446</v>
+        <v>30539</v>
       </c>
       <c r="R94" t="s">
         <v>8</v>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>-7668</v>
+        <v>-7449</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
@@ -6837,7 +6837,7 @@
         <v>5</v>
       </c>
       <c r="H95">
-        <v>31058</v>
+        <v>32236</v>
       </c>
       <c r="I95" t="s">
         <v>6</v>
@@ -6861,7 +6861,7 @@
         <v>7</v>
       </c>
       <c r="Q95">
-        <v>35362</v>
+        <v>36606</v>
       </c>
       <c r="R95" t="s">
         <v>8</v>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>-7773</v>
+        <v>-7486</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
@@ -6897,7 +6897,7 @@
         <v>5</v>
       </c>
       <c r="H96">
-        <v>36969</v>
+        <v>38290</v>
       </c>
       <c r="I96" t="s">
         <v>6</v>
@@ -6921,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="Q96">
-        <v>41252</v>
+        <v>42696</v>
       </c>
       <c r="R96" t="s">
         <v>8</v>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>-7854</v>
+        <v>-7446</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
@@ -6957,7 +6957,7 @@
         <v>5</v>
       </c>
       <c r="H97">
-        <v>42875</v>
+        <v>44381</v>
       </c>
       <c r="I97" t="s">
         <v>6</v>
@@ -6981,7 +6981,7 @@
         <v>7</v>
       </c>
       <c r="Q97">
-        <v>47174</v>
+        <v>48968</v>
       </c>
       <c r="R97" t="s">
         <v>8</v>
@@ -6991,7 +6991,7 @@
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>-7888</v>
+        <v>-7200</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
@@ -7017,7 +7017,7 @@
         <v>5</v>
       </c>
       <c r="H98">
-        <v>48792</v>
+        <v>50664</v>
       </c>
       <c r="I98" t="s">
         <v>6</v>
@@ -7041,7 +7041,7 @@
         <v>7</v>
       </c>
       <c r="Q98">
-        <v>53160</v>
+        <v>55005</v>
       </c>
       <c r="R98" t="s">
         <v>8</v>
@@ -7051,7 +7051,7 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>53160</v>
+        <v>55005</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
@@ -7077,7 +7077,7 @@
         <v>5</v>
       </c>
       <c r="H99">
-        <v>54768</v>
+        <v>56702</v>
       </c>
       <c r="I99" t="s">
         <v>6</v>
@@ -7101,7 +7101,7 @@
         <v>7</v>
       </c>
       <c r="Q99">
-        <v>59151</v>
+        <v>61032</v>
       </c>
       <c r="R99" t="s">
         <v>8</v>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="U99" s="2">
         <f t="shared" si="1"/>
-        <v>57589</v>
+        <v>59237</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="U100">
         <f t="shared" si="1"/>
-        <v>-7423</v>
+        <v>-7967</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
@@ -7155,7 +7155,7 @@
         <v>5</v>
       </c>
       <c r="H101">
-        <v>1564</v>
+        <v>1764</v>
       </c>
       <c r="I101" t="s">
         <v>6</v>
@@ -7179,7 +7179,7 @@
         <v>7</v>
       </c>
       <c r="Q101">
-        <v>5870</v>
+        <v>6082</v>
       </c>
       <c r="R101" t="s">
         <v>8</v>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>-7420</v>
+        <v>-8000</v>
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
@@ -7215,7 +7215,7 @@
         <v>5</v>
       </c>
       <c r="H102">
-        <v>7470</v>
+        <v>7763</v>
       </c>
       <c r="I102" t="s">
         <v>6</v>
@@ -7239,7 +7239,7 @@
         <v>7</v>
       </c>
       <c r="Q102">
-        <v>11846</v>
+        <v>12327</v>
       </c>
       <c r="R102" t="s">
         <v>8</v>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>-7323</v>
+        <v>-7862</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
@@ -7275,7 +7275,7 @@
         <v>5</v>
       </c>
       <c r="H103">
-        <v>13464</v>
+        <v>14023</v>
       </c>
       <c r="I103" t="s">
         <v>6</v>
@@ -7299,7 +7299,7 @@
         <v>7</v>
       </c>
       <c r="Q103">
-        <v>17817</v>
+        <v>18596</v>
       </c>
       <c r="R103" t="s">
         <v>8</v>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>-7247</v>
+        <v>-7658</v>
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
@@ -7335,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="H104">
-        <v>19424</v>
+        <v>20300</v>
       </c>
       <c r="I104" t="s">
         <v>6</v>
@@ -7359,7 +7359,7 @@
         <v>7</v>
       </c>
       <c r="Q104">
-        <v>23672</v>
+        <v>24738</v>
       </c>
       <c r="R104" t="s">
         <v>8</v>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>-7386</v>
+        <v>-7498</v>
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
@@ -7395,7 +7395,7 @@
         <v>5</v>
       </c>
       <c r="H105">
-        <v>25284</v>
+        <v>26426</v>
       </c>
       <c r="I105" t="s">
         <v>6</v>
@@ -7419,7 +7419,7 @@
         <v>7</v>
       </c>
       <c r="Q105">
-        <v>29616</v>
+        <v>30707</v>
       </c>
       <c r="R105" t="s">
         <v>8</v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>-7353</v>
+        <v>-7583</v>
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
@@ -7455,7 +7455,7 @@
         <v>5</v>
       </c>
       <c r="H106">
-        <v>31230</v>
+        <v>32402</v>
       </c>
       <c r="I106" t="s">
         <v>6</v>
@@ -7479,7 +7479,7 @@
         <v>7</v>
       </c>
       <c r="Q106">
-        <v>35663</v>
+        <v>36909</v>
       </c>
       <c r="R106" t="s">
         <v>8</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>-7212</v>
+        <v>-7472</v>
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
@@ -7515,7 +7515,7 @@
         <v>5</v>
       </c>
       <c r="H107">
-        <v>37283</v>
+        <v>38609</v>
       </c>
       <c r="I107" t="s">
         <v>6</v>
@@ -7539,7 +7539,7 @@
         <v>7</v>
       </c>
       <c r="Q107">
-        <v>41540</v>
+        <v>43238</v>
       </c>
       <c r="R107" t="s">
         <v>8</v>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>-7252</v>
+        <v>-7426</v>
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
@@ -7575,7 +7575,7 @@
         <v>5</v>
       </c>
       <c r="H108">
-        <v>43157</v>
+        <v>44931</v>
       </c>
       <c r="I108" t="s">
         <v>6</v>
@@ -7599,7 +7599,7 @@
         <v>7</v>
       </c>
       <c r="Q108">
-        <v>47406</v>
+        <v>49375</v>
       </c>
       <c r="R108" t="s">
         <v>8</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>-7362</v>
+        <v>-7327</v>
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
@@ -7635,7 +7635,7 @@
         <v>5</v>
       </c>
       <c r="H109">
-        <v>49028</v>
+        <v>51093</v>
       </c>
       <c r="I109" t="s">
         <v>6</v>
@@ -7659,7 +7659,7 @@
         <v>7</v>
       </c>
       <c r="Q109">
-        <v>53378</v>
+        <v>55378</v>
       </c>
       <c r="R109" t="s">
         <v>8</v>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>53378</v>
+        <v>55378</v>
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
@@ -7695,7 +7695,7 @@
         <v>5</v>
       </c>
       <c r="H110">
-        <v>54994</v>
+        <v>57071</v>
       </c>
       <c r="I110" t="s">
         <v>6</v>
@@ -7719,7 +7719,7 @@
         <v>7</v>
       </c>
       <c r="Q110">
-        <v>59354</v>
+        <v>61408</v>
       </c>
       <c r="R110" t="s">
         <v>8</v>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="U110" s="2">
         <f t="shared" si="1"/>
-        <v>57790</v>
+        <v>59644</v>
       </c>
     </row>
   </sheetData>
@@ -7743,7 +7743,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7776,22 +7776,22 @@
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>58555</v>
+        <v>59035</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/10000000</f>
-        <v>0.29277500000000001</v>
+        <v>0.29517500000000002</v>
       </c>
       <c r="D2" s="1">
         <f>E2/C2</f>
-        <v>6991.7171889676374</v>
+        <v>6934.8691454222071</v>
       </c>
       <c r="E2">
         <v>2047</v>
       </c>
       <c r="G2">
         <f>FLOOR(D2,1)</f>
-        <v>6991</v>
+        <v>6934</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7799,22 +7799,22 @@
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>57556</v>
+        <v>58958</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/10000000</f>
-        <v>0.28777999999999998</v>
+        <v>0.29479</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D11" si="1">E3/C3</f>
-        <v>7113.0724859267502</v>
+        <v>6943.926184741681</v>
       </c>
       <c r="E3">
         <v>2047</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">FLOOR(D3,1)</f>
-        <v>7113</v>
+        <v>6943</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -7822,22 +7822,22 @@
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>57922</v>
+        <v>58803</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.28960999999999998</v>
+        <v>0.29401500000000003</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>7068.126100618073</v>
+        <v>6962.2298182065533</v>
       </c>
       <c r="E4">
         <v>2047</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>7068</v>
+        <v>6962</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -7845,22 +7845,22 @@
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>58144</v>
+        <v>59080</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.29071999999999998</v>
+        <v>0.2954</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>7041.1392405063298</v>
+        <v>6929.5870006770483</v>
       </c>
       <c r="E5">
         <v>2047</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>7041</v>
+        <v>6929</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -7868,22 +7868,22 @@
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>57778</v>
+        <v>58987</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.28888999999999998</v>
+        <v>0.294935</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>7085.7419779154698</v>
+        <v>6940.512316273077</v>
       </c>
       <c r="E6">
         <v>2047</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>7085</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -7891,22 +7891,22 @@
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>57878</v>
+        <v>59766</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.28938999999999998</v>
+        <v>0.29882999999999998</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>7073.4994298351712</v>
+        <v>6850.0485225713619</v>
       </c>
       <c r="E7">
         <v>2047</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>7073</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -7914,22 +7914,22 @@
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>57974</v>
+        <v>59072</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.28987000000000002</v>
+        <v>0.29536000000000001</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>7061.7863180046224</v>
+        <v>6930.5254604550373</v>
       </c>
       <c r="E8">
         <v>2047</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>7061</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -7937,22 +7937,22 @@
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>57881</v>
+        <v>58750</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.28940500000000002</v>
+        <v>0.29375000000000001</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>7073.1328069660158</v>
+        <v>6968.510638297872</v>
       </c>
       <c r="E9">
         <v>2047</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>7073</v>
+        <v>6968</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -7960,22 +7960,22 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>57589</v>
+        <v>59237</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.28794500000000001</v>
+        <v>0.29618499999999998</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>7108.9965097501254</v>
+        <v>6911.2210273984174</v>
       </c>
       <c r="E10">
         <v>2047</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>7108</v>
+        <v>6911</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -7983,22 +7983,22 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>57790</v>
+        <v>59644</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.28894999999999998</v>
+        <v>0.29821999999999999</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>7084.2706350579692</v>
+        <v>6864.0600898665416</v>
       </c>
       <c r="E11">
         <v>2047</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>7084</v>
+        <v>6864</v>
       </c>
     </row>
   </sheetData>
